--- a/Code/Results/Cases/Case_2_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009697827989299</v>
+        <v>1.033615620209729</v>
       </c>
       <c r="D2">
-        <v>1.025557222413105</v>
+        <v>1.0379528171458</v>
       </c>
       <c r="E2">
-        <v>1.020384058127062</v>
+        <v>1.053801346495265</v>
       </c>
       <c r="F2">
-        <v>1.027643842265563</v>
+        <v>1.0596881405365</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046033059169334</v>
+        <v>1.038247871030924</v>
       </c>
       <c r="J2">
-        <v>1.031592297757161</v>
+        <v>1.038739372639384</v>
       </c>
       <c r="K2">
-        <v>1.036671626548934</v>
+        <v>1.040742233260011</v>
       </c>
       <c r="L2">
-        <v>1.031566531188118</v>
+        <v>1.056546312603732</v>
       </c>
       <c r="M2">
-        <v>1.03873103336978</v>
+        <v>1.062416962913989</v>
       </c>
       <c r="N2">
-        <v>1.03305727714527</v>
+        <v>1.040214501693603</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013626453473371</v>
+        <v>1.034438901845615</v>
       </c>
       <c r="D3">
-        <v>1.028427232523332</v>
+        <v>1.038573976036072</v>
       </c>
       <c r="E3">
-        <v>1.024908078789539</v>
+        <v>1.054850870582612</v>
       </c>
       <c r="F3">
-        <v>1.032270910642778</v>
+        <v>1.060752876648986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047177620557155</v>
+        <v>1.038441229757854</v>
       </c>
       <c r="J3">
-        <v>1.033752416800884</v>
+        <v>1.039206081832141</v>
       </c>
       <c r="K3">
-        <v>1.038708856537732</v>
+        <v>1.041173805061382</v>
       </c>
       <c r="L3">
-        <v>1.035231874773709</v>
+        <v>1.05740834848967</v>
       </c>
       <c r="M3">
-        <v>1.042506880721989</v>
+        <v>1.063295344189091</v>
       </c>
       <c r="N3">
-        <v>1.0352204638058</v>
+        <v>1.040681873666946</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016119394767866</v>
+        <v>1.034972012839618</v>
       </c>
       <c r="D4">
-        <v>1.030250882374324</v>
+        <v>1.038976211702422</v>
       </c>
       <c r="E4">
-        <v>1.027785427354246</v>
+        <v>1.05553121278048</v>
       </c>
       <c r="F4">
-        <v>1.035212415584359</v>
+        <v>1.061442932080747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047895368218483</v>
+        <v>1.03856537903234</v>
       </c>
       <c r="J4">
-        <v>1.035119563339712</v>
+        <v>1.03950780001215</v>
       </c>
       <c r="K4">
-        <v>1.0399974163885</v>
+        <v>1.041452673092877</v>
       </c>
       <c r="L4">
-        <v>1.037559684992342</v>
+        <v>1.057966768169873</v>
       </c>
       <c r="M4">
-        <v>1.044903650265454</v>
+        <v>1.063864212402863</v>
       </c>
       <c r="N4">
-        <v>1.036589551849528</v>
+        <v>1.040984020321379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017156034079668</v>
+        <v>1.035196225322524</v>
       </c>
       <c r="D5">
-        <v>1.031009761666709</v>
+        <v>1.039145382881274</v>
       </c>
       <c r="E5">
-        <v>1.028983533003303</v>
+        <v>1.055817522160584</v>
       </c>
       <c r="F5">
-        <v>1.036436900236015</v>
+        <v>1.061733293715592</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048191750877657</v>
+        <v>1.03861733935213</v>
       </c>
       <c r="J5">
-        <v>1.035687182739863</v>
+        <v>1.039634575733708</v>
       </c>
       <c r="K5">
-        <v>1.040532204908077</v>
+        <v>1.041569815306685</v>
       </c>
       <c r="L5">
-        <v>1.038528141485512</v>
+        <v>1.058201676550986</v>
       </c>
       <c r="M5">
-        <v>1.045900498566932</v>
+        <v>1.064103482601734</v>
       </c>
       <c r="N5">
-        <v>1.037157977334334</v>
+        <v>1.041110976079002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017329432766132</v>
+        <v>1.035233876975742</v>
       </c>
       <c r="D6">
-        <v>1.03113673071181</v>
+        <v>1.039173791602768</v>
       </c>
       <c r="E6">
-        <v>1.029184036329761</v>
+        <v>1.055865611950644</v>
       </c>
       <c r="F6">
-        <v>1.036641798302993</v>
+        <v>1.061782062065943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048241203830509</v>
+        <v>1.038626050094602</v>
       </c>
       <c r="J6">
-        <v>1.035782076003515</v>
+        <v>1.03965585799959</v>
       </c>
       <c r="K6">
-        <v>1.040621597411537</v>
+        <v>1.041589478461979</v>
       </c>
       <c r="L6">
-        <v>1.038690164196911</v>
+        <v>1.058241127400293</v>
       </c>
       <c r="M6">
-        <v>1.046067253572466</v>
+        <v>1.064143664013699</v>
       </c>
       <c r="N6">
-        <v>1.037253005357305</v>
+        <v>1.041132288568143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016133290680267</v>
+        <v>1.034975008415595</v>
       </c>
       <c r="D7">
-        <v>1.030261052850971</v>
+        <v>1.038978471897766</v>
       </c>
       <c r="E7">
-        <v>1.027801481247437</v>
+        <v>1.055535037308245</v>
       </c>
       <c r="F7">
-        <v>1.035228824267634</v>
+        <v>1.061446810877584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047899349405182</v>
+        <v>1.038566074241152</v>
       </c>
       <c r="J7">
-        <v>1.03512717565708</v>
+        <v>1.039509494258538</v>
       </c>
       <c r="K7">
-        <v>1.040004589225226</v>
+        <v>1.041454238723201</v>
       </c>
       <c r="L7">
-        <v>1.037572664995165</v>
+        <v>1.057969906443717</v>
       </c>
       <c r="M7">
-        <v>1.044917011980022</v>
+        <v>1.063867409080459</v>
       </c>
       <c r="N7">
-        <v>1.036597174977259</v>
+        <v>1.040985716973791</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011035929718782</v>
+        <v>1.033893769935827</v>
       </c>
       <c r="D8">
-        <v>1.02653421638866</v>
+        <v>1.038162676755167</v>
       </c>
       <c r="E8">
-        <v>1.021923593784033</v>
+        <v>1.054155782848347</v>
       </c>
       <c r="F8">
-        <v>1.029218732774</v>
+        <v>1.06004774472924</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04642467294831</v>
+        <v>1.03831341733325</v>
       </c>
       <c r="J8">
-        <v>1.032328775589763</v>
+        <v>1.0388971552816</v>
       </c>
       <c r="K8">
-        <v>1.037366370942483</v>
+        <v>1.040888164620031</v>
       </c>
       <c r="L8">
-        <v>1.032814564273992</v>
+        <v>1.056837511790429</v>
       </c>
       <c r="M8">
-        <v>1.040016944854518</v>
+        <v>1.062713712552403</v>
       </c>
       <c r="N8">
-        <v>1.033794800860866</v>
+        <v>1.040372508405269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001659778521701</v>
+        <v>1.031991559196709</v>
       </c>
       <c r="D9">
-        <v>1.019700460895895</v>
+        <v>1.036727540806749</v>
       </c>
       <c r="E9">
-        <v>1.011162386560279</v>
+        <v>1.051734821215178</v>
       </c>
       <c r="F9">
-        <v>1.018204699982327</v>
+        <v>1.057590880334606</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043645603415752</v>
+        <v>1.037860825667902</v>
       </c>
       <c r="J9">
-        <v>1.02715406156817</v>
+        <v>1.037816083932692</v>
       </c>
       <c r="K9">
-        <v>1.03248179808883</v>
+        <v>1.03988774707793</v>
       </c>
       <c r="L9">
-        <v>1.024076921094647</v>
+        <v>1.054846910103996</v>
       </c>
       <c r="M9">
-        <v>1.031009165471003</v>
+        <v>1.060684597963257</v>
       </c>
       <c r="N9">
-        <v>1.028612738151814</v>
+        <v>1.039289901811045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9951181301524999</v>
+        <v>1.030725565283513</v>
       </c>
       <c r="D10">
-        <v>1.014949888588539</v>
+        <v>1.035772488914496</v>
       </c>
       <c r="E10">
-        <v>1.003686184479535</v>
+        <v>1.050127262074469</v>
       </c>
       <c r="F10">
-        <v>1.010545780865989</v>
+        <v>1.055958723519588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041663495335728</v>
+        <v>1.037554172618341</v>
       </c>
       <c r="J10">
-        <v>1.023526786662072</v>
+        <v>1.037094051494449</v>
       </c>
       <c r="K10">
-        <v>1.029054364429809</v>
+        <v>1.039218900556164</v>
       </c>
       <c r="L10">
-        <v>1.017989201160318</v>
+        <v>1.053523133498391</v>
       </c>
       <c r="M10">
-        <v>1.024727203228107</v>
+        <v>1.059334495440541</v>
       </c>
       <c r="N10">
-        <v>1.024980312099295</v>
+        <v>1.038566844003921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9922102826073496</v>
+        <v>1.030177902340665</v>
       </c>
       <c r="D11">
-        <v>1.012842939420558</v>
+        <v>1.035359364808684</v>
       </c>
       <c r="E11">
-        <v>1.000369869600444</v>
+        <v>1.049432703897379</v>
       </c>
       <c r="F11">
-        <v>1.007146792410708</v>
+        <v>1.055253358085909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04077259530472</v>
+        <v>1.037420227609329</v>
       </c>
       <c r="J11">
-        <v>1.021910752338041</v>
+        <v>1.036781103642953</v>
       </c>
       <c r="K11">
-        <v>1.027526653914247</v>
+        <v>1.038928844931198</v>
       </c>
       <c r="L11">
-        <v>1.015284814091818</v>
+        <v>1.052950714214966</v>
       </c>
       <c r="M11">
-        <v>1.021935177605612</v>
+        <v>1.058750523634074</v>
       </c>
       <c r="N11">
-        <v>1.023361982821163</v>
+        <v>1.038253451730581</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.991118298650037</v>
+        <v>1.02997455554525</v>
       </c>
       <c r="D12">
-        <v>1.012052486337176</v>
+        <v>1.035205976732175</v>
       </c>
       <c r="E12">
-        <v>0.9991254858867381</v>
+        <v>1.049174944107635</v>
       </c>
       <c r="F12">
-        <v>1.005871147977258</v>
+        <v>1.054991560591461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040436595239931</v>
+        <v>1.037370300429971</v>
       </c>
       <c r="J12">
-        <v>1.021303363276371</v>
+        <v>1.036664816363061</v>
       </c>
       <c r="K12">
-        <v>1.026952366041053</v>
+        <v>1.03882104020782</v>
       </c>
       <c r="L12">
-        <v>1.014269459406802</v>
+        <v>1.05273821086292</v>
       </c>
       <c r="M12">
-        <v>1.020886723899705</v>
+        <v>1.058533706236577</v>
       </c>
       <c r="N12">
-        <v>1.022753731197357</v>
+        <v>1.038136999309413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9913530800874201</v>
+        <v>1.030018170498841</v>
       </c>
       <c r="D13">
-        <v>1.012222401574834</v>
+        <v>1.035238876046471</v>
       </c>
       <c r="E13">
-        <v>0.9993929900098935</v>
+        <v>1.049230224033938</v>
       </c>
       <c r="F13">
-        <v>1.006145382912303</v>
+        <v>1.055047707677218</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040508901252917</v>
+        <v>1.037381017845882</v>
       </c>
       <c r="J13">
-        <v>1.02143397762331</v>
+        <v>1.036689762377393</v>
       </c>
       <c r="K13">
-        <v>1.027075866360945</v>
+        <v>1.038844167618139</v>
       </c>
       <c r="L13">
-        <v>1.014487755585104</v>
+        <v>1.052783788171538</v>
       </c>
       <c r="M13">
-        <v>1.021112144908747</v>
+        <v>1.058580209958395</v>
       </c>
       <c r="N13">
-        <v>1.02288453103165</v>
+        <v>1.038161980749947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9921202646531349</v>
+        <v>1.030161091999271</v>
       </c>
       <c r="D14">
-        <v>1.012777762253033</v>
+        <v>1.035346684375375</v>
       </c>
       <c r="E14">
-        <v>1.000267268683942</v>
+        <v>1.049411392695027</v>
       </c>
       <c r="F14">
-        <v>1.007041618842617</v>
+        <v>1.055231713602722</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040744926132743</v>
+        <v>1.037416104160146</v>
       </c>
       <c r="J14">
-        <v>1.021860692463659</v>
+        <v>1.036771492202321</v>
       </c>
       <c r="K14">
-        <v>1.027479324052421</v>
+        <v>1.038919935082059</v>
       </c>
       <c r="L14">
-        <v>1.015201108715188</v>
+        <v>1.052933146196607</v>
       </c>
       <c r="M14">
-        <v>1.021848747489546</v>
+        <v>1.058732599482456</v>
       </c>
       <c r="N14">
-        <v>1.023311851856017</v>
+        <v>1.0382438266406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.992591360470208</v>
+        <v>1.030249161242187</v>
       </c>
       <c r="D15">
-        <v>1.013118889161926</v>
+        <v>1.035413117253126</v>
       </c>
       <c r="E15">
-        <v>1.000804255721131</v>
+        <v>1.049523047194775</v>
       </c>
       <c r="F15">
-        <v>1.007592060762439</v>
+        <v>1.055345113135094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040889670191056</v>
+        <v>1.03743769895159</v>
       </c>
       <c r="J15">
-        <v>1.022122652500101</v>
+        <v>1.036821842776728</v>
       </c>
       <c r="K15">
-        <v>1.027726994289204</v>
+        <v>1.038966609315858</v>
       </c>
       <c r="L15">
-        <v>1.01563917752464</v>
+        <v>1.053025186351347</v>
       </c>
       <c r="M15">
-        <v>1.022301068194094</v>
+        <v>1.058826504409015</v>
       </c>
       <c r="N15">
-        <v>1.023574183905758</v>
+        <v>1.038294248718598</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953094806133492</v>
+        <v>1.030761922957995</v>
       </c>
       <c r="D16">
-        <v>1.015088639693807</v>
+        <v>1.03579991557596</v>
       </c>
       <c r="E16">
-        <v>1.003904554664581</v>
+        <v>1.050173389826737</v>
       </c>
       <c r="F16">
-        <v>1.010769561408182</v>
+        <v>1.056005565227114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041721919004555</v>
+        <v>1.037563037669574</v>
       </c>
       <c r="J16">
-        <v>1.023633055741666</v>
+        <v>1.037114814514551</v>
       </c>
       <c r="K16">
-        <v>1.029154811556864</v>
+        <v>1.039238141398478</v>
       </c>
       <c r="L16">
-        <v>1.018167195612719</v>
+        <v>1.053561139679034</v>
       </c>
       <c r="M16">
-        <v>1.024910938257847</v>
+        <v>1.059373265104016</v>
       </c>
       <c r="N16">
-        <v>1.025086732093171</v>
+        <v>1.038587636509894</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9969939414910993</v>
+        <v>1.031083705224996</v>
       </c>
       <c r="D17">
-        <v>1.016310614709807</v>
+        <v>1.036042657403797</v>
       </c>
       <c r="E17">
-        <v>1.005827656743354</v>
+        <v>1.050581741604139</v>
       </c>
       <c r="F17">
-        <v>1.012740125816624</v>
+        <v>1.056420216607677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042235108038377</v>
+        <v>1.037641348580173</v>
       </c>
       <c r="J17">
-        <v>1.024568130242248</v>
+        <v>1.037298507528878</v>
       </c>
       <c r="K17">
-        <v>1.03003857852356</v>
+        <v>1.039408349066235</v>
       </c>
       <c r="L17">
-        <v>1.019734271798338</v>
+        <v>1.053897539669594</v>
       </c>
       <c r="M17">
-        <v>1.026528402011156</v>
+        <v>1.059716403315483</v>
       </c>
       <c r="N17">
-        <v>1.0260231345068</v>
+        <v>1.038771590389371</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9979692369733716</v>
+        <v>1.031271445532817</v>
       </c>
       <c r="D18">
-        <v>1.017018579438711</v>
+        <v>1.036184284992257</v>
       </c>
       <c r="E18">
-        <v>1.006941788595184</v>
+        <v>1.050820073422315</v>
       </c>
       <c r="F18">
-        <v>1.013881599813427</v>
+        <v>1.056662207792008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042531306355813</v>
+        <v>1.037686913834152</v>
       </c>
       <c r="J18">
-        <v>1.025109184228347</v>
+        <v>1.037405623249153</v>
       </c>
       <c r="K18">
-        <v>1.030549876767475</v>
+        <v>1.039507585730342</v>
       </c>
       <c r="L18">
-        <v>1.020641763972573</v>
+        <v>1.054093831755583</v>
       </c>
       <c r="M18">
-        <v>1.027464944886557</v>
+        <v>1.059916610901033</v>
       </c>
       <c r="N18">
-        <v>1.026564956851618</v>
+        <v>1.038878858226255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9983005792983658</v>
+        <v>1.031335468591893</v>
       </c>
       <c r="D19">
-        <v>1.01725917414082</v>
+        <v>1.036232583142781</v>
       </c>
       <c r="E19">
-        <v>1.007320412725055</v>
+        <v>1.050901363344271</v>
       </c>
       <c r="F19">
-        <v>1.01426948945141</v>
+        <v>1.056744742902194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042631775575524</v>
+        <v>1.037702431364047</v>
       </c>
       <c r="J19">
-        <v>1.025292939097803</v>
+        <v>1.037442141939789</v>
       </c>
       <c r="K19">
-        <v>1.030723513992748</v>
+        <v>1.039541415612378</v>
       </c>
       <c r="L19">
-        <v>1.020950099424341</v>
+        <v>1.054160775094951</v>
       </c>
       <c r="M19">
-        <v>1.027783128752542</v>
+        <v>1.059984886812871</v>
       </c>
       <c r="N19">
-        <v>1.026748972674066</v>
+        <v>1.03891542877762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9968139658036799</v>
+        <v>1.031049175835363</v>
       </c>
       <c r="D20">
-        <v>1.016180006458627</v>
+        <v>1.036016609314251</v>
       </c>
       <c r="E20">
-        <v>1.005622114986505</v>
+        <v>1.05053791409799</v>
       </c>
       <c r="F20">
-        <v>1.012529527283321</v>
+        <v>1.056375714773586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042180373344608</v>
+        <v>1.037632958159286</v>
       </c>
       <c r="J20">
-        <v>1.024468258600059</v>
+        <v>1.037278802030936</v>
       </c>
       <c r="K20">
-        <v>1.029944193826185</v>
+        <v>1.039390091791846</v>
       </c>
       <c r="L20">
-        <v>1.019566821447481</v>
+        <v>1.053861439302566</v>
       </c>
       <c r="M20">
-        <v>1.026355580779721</v>
+        <v>1.059679581530295</v>
       </c>
       <c r="N20">
-        <v>1.025923121035422</v>
+        <v>1.038751856907361</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9918946806378646</v>
+        <v>1.030119002971116</v>
       </c>
       <c r="D21">
-        <v>1.012614441575899</v>
+        <v>1.03531493571347</v>
       </c>
       <c r="E21">
-        <v>1.000010167699394</v>
+        <v>1.049358036682708</v>
       </c>
       <c r="F21">
-        <v>1.006778067382244</v>
+        <v>1.05517752273234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040675564405719</v>
+        <v>1.037405776914838</v>
       </c>
       <c r="J21">
-        <v>1.021735234695013</v>
+        <v>1.036747426026589</v>
       </c>
       <c r="K21">
-        <v>1.027360706617562</v>
+        <v>1.038897625242356</v>
       </c>
       <c r="L21">
-        <v>1.014991347453372</v>
+        <v>1.052889160699222</v>
       </c>
       <c r="M21">
-        <v>1.021632155051996</v>
+        <v>1.058687721916215</v>
       </c>
       <c r="N21">
-        <v>1.023186215922949</v>
+        <v>1.038219726288139</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9887326869818623</v>
+        <v>1.029534627628143</v>
       </c>
       <c r="D22">
-        <v>1.010327095953719</v>
+        <v>1.034874140259909</v>
       </c>
       <c r="E22">
-        <v>0.9964086953291549</v>
+        <v>1.048617532301847</v>
       </c>
       <c r="F22">
-        <v>1.003085674099874</v>
+        <v>1.054425367822161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039699942982702</v>
+        <v>1.037261932396927</v>
       </c>
       <c r="J22">
-        <v>1.01997550516859</v>
+        <v>1.036413071801786</v>
       </c>
       <c r="K22">
-        <v>1.025696710031981</v>
+        <v>1.038587615564302</v>
       </c>
       <c r="L22">
-        <v>1.012051633966048</v>
+        <v>1.052278537444797</v>
       </c>
       <c r="M22">
-        <v>1.018596250023537</v>
+        <v>1.058064654719771</v>
       </c>
       <c r="N22">
-        <v>1.021423987378755</v>
+        <v>1.037884897241985</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9904156647792298</v>
+        <v>1.029844371875824</v>
       </c>
       <c r="D23">
-        <v>1.01154409577257</v>
+        <v>1.035107778242807</v>
       </c>
       <c r="E23">
-        <v>0.9983250634834114</v>
+        <v>1.049009961200727</v>
       </c>
       <c r="F23">
-        <v>1.005050551089555</v>
+        <v>1.054823985696363</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04021999572894</v>
+        <v>1.037338282325511</v>
       </c>
       <c r="J23">
-        <v>1.020912398048611</v>
+        <v>1.036590343328051</v>
       </c>
       <c r="K23">
-        <v>1.026582681976115</v>
+        <v>1.038751992887211</v>
       </c>
       <c r="L23">
-        <v>1.01361619165514</v>
+        <v>1.052602175019964</v>
       </c>
       <c r="M23">
-        <v>1.020212106510239</v>
+        <v>1.058394901599133</v>
       </c>
       <c r="N23">
-        <v>1.022362210754129</v>
+        <v>1.038062420514152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9968953113467811</v>
+        <v>1.031064778025411</v>
       </c>
       <c r="D24">
-        <v>1.016239037491808</v>
+        <v>1.036028379200091</v>
       </c>
       <c r="E24">
-        <v>1.005715013837601</v>
+        <v>1.050557717406905</v>
       </c>
       <c r="F24">
-        <v>1.012624712129082</v>
+        <v>1.056395822828892</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042205115275513</v>
+        <v>1.037636749775986</v>
       </c>
       <c r="J24">
-        <v>1.024513399745572</v>
+        <v>1.037287706187908</v>
       </c>
       <c r="K24">
-        <v>1.029986855130663</v>
+        <v>1.039398341599979</v>
       </c>
       <c r="L24">
-        <v>1.019642505275667</v>
+        <v>1.053877751270755</v>
       </c>
       <c r="M24">
-        <v>1.026433692525715</v>
+        <v>1.05969621952201</v>
       </c>
       <c r="N24">
-        <v>1.02596832628654</v>
+        <v>1.038760773709258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004133006160643</v>
+        <v>1.032482953986888</v>
       </c>
       <c r="D25">
-        <v>1.021500283475073</v>
+        <v>1.037098264004582</v>
       </c>
       <c r="E25">
-        <v>1.013995292313827</v>
+        <v>1.052359571089347</v>
       </c>
       <c r="F25">
-        <v>1.021105401758976</v>
+        <v>1.058225029032553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044386247166141</v>
+        <v>1.037978702160606</v>
       </c>
       <c r="J25">
-        <v>1.028522074252134</v>
+        <v>1.038095803624861</v>
       </c>
       <c r="K25">
-        <v>1.033773757896397</v>
+        <v>1.04014671879536</v>
       </c>
       <c r="L25">
-        <v>1.026380165856462</v>
+        <v>1.055360951862975</v>
       </c>
       <c r="M25">
-        <v>1.033384685710528</v>
+        <v>1.061208711333003</v>
       </c>
       <c r="N25">
-        <v>1.029982693570703</v>
+        <v>1.039570018737262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033615620209729</v>
+        <v>1.009697827989299</v>
       </c>
       <c r="D2">
-        <v>1.0379528171458</v>
+        <v>1.025557222413105</v>
       </c>
       <c r="E2">
-        <v>1.053801346495265</v>
+        <v>1.020384058127062</v>
       </c>
       <c r="F2">
-        <v>1.0596881405365</v>
+        <v>1.027643842265563</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038247871030924</v>
+        <v>1.046033059169334</v>
       </c>
       <c r="J2">
-        <v>1.038739372639384</v>
+        <v>1.031592297757161</v>
       </c>
       <c r="K2">
-        <v>1.040742233260011</v>
+        <v>1.036671626548934</v>
       </c>
       <c r="L2">
-        <v>1.056546312603732</v>
+        <v>1.031566531188118</v>
       </c>
       <c r="M2">
-        <v>1.062416962913989</v>
+        <v>1.03873103336978</v>
       </c>
       <c r="N2">
-        <v>1.040214501693603</v>
+        <v>1.03305727714527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034438901845615</v>
+        <v>1.013626453473371</v>
       </c>
       <c r="D3">
-        <v>1.038573976036072</v>
+        <v>1.028427232523331</v>
       </c>
       <c r="E3">
-        <v>1.054850870582612</v>
+        <v>1.024908078789538</v>
       </c>
       <c r="F3">
-        <v>1.060752876648986</v>
+        <v>1.032270910642777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038441229757854</v>
+        <v>1.047177620557154</v>
       </c>
       <c r="J3">
-        <v>1.039206081832141</v>
+        <v>1.033752416800883</v>
       </c>
       <c r="K3">
-        <v>1.041173805061382</v>
+        <v>1.038708856537731</v>
       </c>
       <c r="L3">
-        <v>1.05740834848967</v>
+        <v>1.035231874773709</v>
       </c>
       <c r="M3">
-        <v>1.063295344189091</v>
+        <v>1.042506880721989</v>
       </c>
       <c r="N3">
-        <v>1.040681873666946</v>
+        <v>1.035220463805799</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034972012839618</v>
+        <v>1.016119394767866</v>
       </c>
       <c r="D4">
-        <v>1.038976211702422</v>
+        <v>1.030250882374324</v>
       </c>
       <c r="E4">
-        <v>1.05553121278048</v>
+        <v>1.027785427354246</v>
       </c>
       <c r="F4">
-        <v>1.061442932080747</v>
+        <v>1.035212415584359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03856537903234</v>
+        <v>1.047895368218482</v>
       </c>
       <c r="J4">
-        <v>1.03950780001215</v>
+        <v>1.035119563339712</v>
       </c>
       <c r="K4">
-        <v>1.041452673092877</v>
+        <v>1.0399974163885</v>
       </c>
       <c r="L4">
-        <v>1.057966768169873</v>
+        <v>1.037559684992342</v>
       </c>
       <c r="M4">
-        <v>1.063864212402863</v>
+        <v>1.044903650265454</v>
       </c>
       <c r="N4">
-        <v>1.040984020321379</v>
+        <v>1.036589551849528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035196225322524</v>
+        <v>1.017156034079668</v>
       </c>
       <c r="D5">
-        <v>1.039145382881274</v>
+        <v>1.031009761666709</v>
       </c>
       <c r="E5">
-        <v>1.055817522160584</v>
+        <v>1.028983533003304</v>
       </c>
       <c r="F5">
-        <v>1.061733293715592</v>
+        <v>1.036436900236015</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03861733935213</v>
+        <v>1.048191750877657</v>
       </c>
       <c r="J5">
-        <v>1.039634575733708</v>
+        <v>1.035687182739863</v>
       </c>
       <c r="K5">
-        <v>1.041569815306685</v>
+        <v>1.040532204908077</v>
       </c>
       <c r="L5">
-        <v>1.058201676550986</v>
+        <v>1.038528141485512</v>
       </c>
       <c r="M5">
-        <v>1.064103482601734</v>
+        <v>1.045900498566933</v>
       </c>
       <c r="N5">
-        <v>1.041110976079002</v>
+        <v>1.037157977334334</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035233876975742</v>
+        <v>1.017329432766132</v>
       </c>
       <c r="D6">
-        <v>1.039173791602768</v>
+        <v>1.03113673071181</v>
       </c>
       <c r="E6">
-        <v>1.055865611950644</v>
+        <v>1.029184036329761</v>
       </c>
       <c r="F6">
-        <v>1.061782062065943</v>
+        <v>1.036641798302993</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038626050094602</v>
+        <v>1.048241203830509</v>
       </c>
       <c r="J6">
-        <v>1.03965585799959</v>
+        <v>1.035782076003515</v>
       </c>
       <c r="K6">
-        <v>1.041589478461979</v>
+        <v>1.040621597411537</v>
       </c>
       <c r="L6">
-        <v>1.058241127400293</v>
+        <v>1.038690164196911</v>
       </c>
       <c r="M6">
-        <v>1.064143664013699</v>
+        <v>1.046067253572466</v>
       </c>
       <c r="N6">
-        <v>1.041132288568143</v>
+        <v>1.037253005357305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034975008415595</v>
+        <v>1.016133290680267</v>
       </c>
       <c r="D7">
-        <v>1.038978471897766</v>
+        <v>1.030261052850971</v>
       </c>
       <c r="E7">
-        <v>1.055535037308245</v>
+        <v>1.027801481247437</v>
       </c>
       <c r="F7">
-        <v>1.061446810877584</v>
+        <v>1.035228824267634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038566074241152</v>
+        <v>1.047899349405182</v>
       </c>
       <c r="J7">
-        <v>1.039509494258538</v>
+        <v>1.03512717565708</v>
       </c>
       <c r="K7">
-        <v>1.041454238723201</v>
+        <v>1.040004589225226</v>
       </c>
       <c r="L7">
-        <v>1.057969906443717</v>
+        <v>1.037572664995165</v>
       </c>
       <c r="M7">
-        <v>1.063867409080459</v>
+        <v>1.044917011980022</v>
       </c>
       <c r="N7">
-        <v>1.040985716973791</v>
+        <v>1.03659717497726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033893769935827</v>
+        <v>1.011035929718782</v>
       </c>
       <c r="D8">
-        <v>1.038162676755167</v>
+        <v>1.026534216388661</v>
       </c>
       <c r="E8">
-        <v>1.054155782848347</v>
+        <v>1.021923593784033</v>
       </c>
       <c r="F8">
-        <v>1.06004774472924</v>
+        <v>1.029218732774001</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03831341733325</v>
+        <v>1.04642467294831</v>
       </c>
       <c r="J8">
-        <v>1.0388971552816</v>
+        <v>1.032328775589763</v>
       </c>
       <c r="K8">
-        <v>1.040888164620031</v>
+        <v>1.037366370942483</v>
       </c>
       <c r="L8">
-        <v>1.056837511790429</v>
+        <v>1.032814564273992</v>
       </c>
       <c r="M8">
-        <v>1.062713712552403</v>
+        <v>1.040016944854518</v>
       </c>
       <c r="N8">
-        <v>1.040372508405269</v>
+        <v>1.033794800860866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031991559196709</v>
+        <v>1.001659778521701</v>
       </c>
       <c r="D9">
-        <v>1.036727540806749</v>
+        <v>1.019700460895895</v>
       </c>
       <c r="E9">
-        <v>1.051734821215178</v>
+        <v>1.011162386560278</v>
       </c>
       <c r="F9">
-        <v>1.057590880334606</v>
+        <v>1.018204699982326</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037860825667902</v>
+        <v>1.043645603415752</v>
       </c>
       <c r="J9">
-        <v>1.037816083932692</v>
+        <v>1.02715406156817</v>
       </c>
       <c r="K9">
-        <v>1.03988774707793</v>
+        <v>1.03248179808883</v>
       </c>
       <c r="L9">
-        <v>1.054846910103996</v>
+        <v>1.024076921094646</v>
       </c>
       <c r="M9">
-        <v>1.060684597963257</v>
+        <v>1.031009165471003</v>
       </c>
       <c r="N9">
-        <v>1.039289901811045</v>
+        <v>1.028612738151814</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030725565283513</v>
+        <v>0.9951181301525008</v>
       </c>
       <c r="D10">
-        <v>1.035772488914496</v>
+        <v>1.014949888588539</v>
       </c>
       <c r="E10">
-        <v>1.050127262074469</v>
+        <v>1.003686184479536</v>
       </c>
       <c r="F10">
-        <v>1.055958723519588</v>
+        <v>1.01054578086599</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037554172618341</v>
+        <v>1.041663495335728</v>
       </c>
       <c r="J10">
-        <v>1.037094051494449</v>
+        <v>1.023526786662072</v>
       </c>
       <c r="K10">
-        <v>1.039218900556164</v>
+        <v>1.02905436442981</v>
       </c>
       <c r="L10">
-        <v>1.053523133498391</v>
+        <v>1.017989201160318</v>
       </c>
       <c r="M10">
-        <v>1.059334495440541</v>
+        <v>1.024727203228109</v>
       </c>
       <c r="N10">
-        <v>1.038566844003921</v>
+        <v>1.024980312099295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030177902340665</v>
+        <v>0.9922102826073499</v>
       </c>
       <c r="D11">
-        <v>1.035359364808684</v>
+        <v>1.012842939420558</v>
       </c>
       <c r="E11">
-        <v>1.049432703897379</v>
+        <v>1.000369869600444</v>
       </c>
       <c r="F11">
-        <v>1.055253358085909</v>
+        <v>1.007146792410709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037420227609329</v>
+        <v>1.04077259530472</v>
       </c>
       <c r="J11">
-        <v>1.036781103642953</v>
+        <v>1.021910752338042</v>
       </c>
       <c r="K11">
-        <v>1.038928844931198</v>
+        <v>1.027526653914247</v>
       </c>
       <c r="L11">
-        <v>1.052950714214966</v>
+        <v>1.015284814091818</v>
       </c>
       <c r="M11">
-        <v>1.058750523634074</v>
+        <v>1.021935177605613</v>
       </c>
       <c r="N11">
-        <v>1.038253451730581</v>
+        <v>1.023361982821163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02997455554525</v>
+        <v>0.9911182986500365</v>
       </c>
       <c r="D12">
-        <v>1.035205976732175</v>
+        <v>1.012052486337176</v>
       </c>
       <c r="E12">
-        <v>1.049174944107635</v>
+        <v>0.999125485886738</v>
       </c>
       <c r="F12">
-        <v>1.054991560591461</v>
+        <v>1.005871147977258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037370300429971</v>
+        <v>1.040436595239931</v>
       </c>
       <c r="J12">
-        <v>1.036664816363061</v>
+        <v>1.021303363276371</v>
       </c>
       <c r="K12">
-        <v>1.03882104020782</v>
+        <v>1.026952366041053</v>
       </c>
       <c r="L12">
-        <v>1.05273821086292</v>
+        <v>1.014269459406802</v>
       </c>
       <c r="M12">
-        <v>1.058533706236577</v>
+        <v>1.020886723899705</v>
       </c>
       <c r="N12">
-        <v>1.038136999309413</v>
+        <v>1.022753731197356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030018170498841</v>
+        <v>0.9913530800874204</v>
       </c>
       <c r="D13">
-        <v>1.035238876046471</v>
+        <v>1.012222401574835</v>
       </c>
       <c r="E13">
-        <v>1.049230224033938</v>
+        <v>0.9993929900098938</v>
       </c>
       <c r="F13">
-        <v>1.055047707677218</v>
+        <v>1.006145382912304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037381017845882</v>
+        <v>1.040508901252917</v>
       </c>
       <c r="J13">
-        <v>1.036689762377393</v>
+        <v>1.02143397762331</v>
       </c>
       <c r="K13">
-        <v>1.038844167618139</v>
+        <v>1.027075866360945</v>
       </c>
       <c r="L13">
-        <v>1.052783788171538</v>
+        <v>1.014487755585105</v>
       </c>
       <c r="M13">
-        <v>1.058580209958395</v>
+        <v>1.021112144908748</v>
       </c>
       <c r="N13">
-        <v>1.038161980749947</v>
+        <v>1.02288453103165</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030161091999271</v>
+        <v>0.9921202646531343</v>
       </c>
       <c r="D14">
-        <v>1.035346684375375</v>
+        <v>1.012777762253033</v>
       </c>
       <c r="E14">
-        <v>1.049411392695027</v>
+        <v>1.000267268683942</v>
       </c>
       <c r="F14">
-        <v>1.055231713602722</v>
+        <v>1.007041618842617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037416104160146</v>
+        <v>1.040744926132743</v>
       </c>
       <c r="J14">
-        <v>1.036771492202321</v>
+        <v>1.021860692463658</v>
       </c>
       <c r="K14">
-        <v>1.038919935082059</v>
+        <v>1.02747932405242</v>
       </c>
       <c r="L14">
-        <v>1.052933146196607</v>
+        <v>1.015201108715188</v>
       </c>
       <c r="M14">
-        <v>1.058732599482456</v>
+        <v>1.021848747489546</v>
       </c>
       <c r="N14">
-        <v>1.0382438266406</v>
+        <v>1.023311851856016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030249161242187</v>
+        <v>0.992591360470207</v>
       </c>
       <c r="D15">
-        <v>1.035413117253126</v>
+        <v>1.013118889161924</v>
       </c>
       <c r="E15">
-        <v>1.049523047194775</v>
+        <v>1.00080425572113</v>
       </c>
       <c r="F15">
-        <v>1.055345113135094</v>
+        <v>1.007592060762438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03743769895159</v>
+        <v>1.040889670191055</v>
       </c>
       <c r="J15">
-        <v>1.036821842776728</v>
+        <v>1.0221226525001</v>
       </c>
       <c r="K15">
-        <v>1.038966609315858</v>
+        <v>1.027726994289203</v>
       </c>
       <c r="L15">
-        <v>1.053025186351347</v>
+        <v>1.015639177524639</v>
       </c>
       <c r="M15">
-        <v>1.058826504409015</v>
+        <v>1.022301068194092</v>
       </c>
       <c r="N15">
-        <v>1.038294248718598</v>
+        <v>1.023574183905757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030761922957995</v>
+        <v>0.9953094806133493</v>
       </c>
       <c r="D16">
-        <v>1.03579991557596</v>
+        <v>1.015088639693807</v>
       </c>
       <c r="E16">
-        <v>1.050173389826737</v>
+        <v>1.00390455466458</v>
       </c>
       <c r="F16">
-        <v>1.056005565227114</v>
+        <v>1.010769561408181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037563037669574</v>
+        <v>1.041721919004555</v>
       </c>
       <c r="J16">
-        <v>1.037114814514551</v>
+        <v>1.023633055741666</v>
       </c>
       <c r="K16">
-        <v>1.039238141398478</v>
+        <v>1.029154811556864</v>
       </c>
       <c r="L16">
-        <v>1.053561139679034</v>
+        <v>1.018167195612719</v>
       </c>
       <c r="M16">
-        <v>1.059373265104016</v>
+        <v>1.024910938257846</v>
       </c>
       <c r="N16">
-        <v>1.038587636509894</v>
+        <v>1.025086732093171</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031083705224996</v>
+        <v>0.9969939414910994</v>
       </c>
       <c r="D17">
-        <v>1.036042657403797</v>
+        <v>1.016310614709807</v>
       </c>
       <c r="E17">
-        <v>1.050581741604139</v>
+        <v>1.005827656743355</v>
       </c>
       <c r="F17">
-        <v>1.056420216607677</v>
+        <v>1.012740125816625</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037641348580173</v>
+        <v>1.042235108038377</v>
       </c>
       <c r="J17">
-        <v>1.037298507528878</v>
+        <v>1.024568130242248</v>
       </c>
       <c r="K17">
-        <v>1.039408349066235</v>
+        <v>1.03003857852356</v>
       </c>
       <c r="L17">
-        <v>1.053897539669594</v>
+        <v>1.019734271798338</v>
       </c>
       <c r="M17">
-        <v>1.059716403315483</v>
+        <v>1.026528402011156</v>
       </c>
       <c r="N17">
-        <v>1.038771590389371</v>
+        <v>1.0260231345068</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031271445532817</v>
+        <v>0.9979692369733719</v>
       </c>
       <c r="D18">
-        <v>1.036184284992257</v>
+        <v>1.017018579438712</v>
       </c>
       <c r="E18">
-        <v>1.050820073422315</v>
+        <v>1.006941788595185</v>
       </c>
       <c r="F18">
-        <v>1.056662207792008</v>
+        <v>1.013881599813427</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037686913834152</v>
+        <v>1.042531306355813</v>
       </c>
       <c r="J18">
-        <v>1.037405623249153</v>
+        <v>1.025109184228347</v>
       </c>
       <c r="K18">
-        <v>1.039507585730342</v>
+        <v>1.030549876767476</v>
       </c>
       <c r="L18">
-        <v>1.054093831755583</v>
+        <v>1.020641763972573</v>
       </c>
       <c r="M18">
-        <v>1.059916610901033</v>
+        <v>1.027464944886558</v>
       </c>
       <c r="N18">
-        <v>1.038878858226255</v>
+        <v>1.026564956851618</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031335468591893</v>
+        <v>0.9983005792983652</v>
       </c>
       <c r="D19">
-        <v>1.036232583142781</v>
+        <v>1.01725917414082</v>
       </c>
       <c r="E19">
-        <v>1.050901363344271</v>
+        <v>1.007320412725055</v>
       </c>
       <c r="F19">
-        <v>1.056744742902194</v>
+        <v>1.014269489451408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037702431364047</v>
+        <v>1.042631775575524</v>
       </c>
       <c r="J19">
-        <v>1.037442141939789</v>
+        <v>1.025292939097803</v>
       </c>
       <c r="K19">
-        <v>1.039541415612378</v>
+        <v>1.030723513992748</v>
       </c>
       <c r="L19">
-        <v>1.054160775094951</v>
+        <v>1.02095009942434</v>
       </c>
       <c r="M19">
-        <v>1.059984886812871</v>
+        <v>1.027783128752541</v>
       </c>
       <c r="N19">
-        <v>1.03891542877762</v>
+        <v>1.026748972674066</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031049175835363</v>
+        <v>0.9968139658036798</v>
       </c>
       <c r="D20">
-        <v>1.036016609314251</v>
+        <v>1.016180006458627</v>
       </c>
       <c r="E20">
-        <v>1.05053791409799</v>
+        <v>1.005622114986505</v>
       </c>
       <c r="F20">
-        <v>1.056375714773586</v>
+        <v>1.012529527283321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037632958159286</v>
+        <v>1.042180373344608</v>
       </c>
       <c r="J20">
-        <v>1.037278802030936</v>
+        <v>1.024468258600059</v>
       </c>
       <c r="K20">
-        <v>1.039390091791846</v>
+        <v>1.029944193826185</v>
       </c>
       <c r="L20">
-        <v>1.053861439302566</v>
+        <v>1.019566821447481</v>
       </c>
       <c r="M20">
-        <v>1.059679581530295</v>
+        <v>1.026355580779722</v>
       </c>
       <c r="N20">
-        <v>1.038751856907361</v>
+        <v>1.025923121035422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030119002971116</v>
+        <v>0.9918946806378647</v>
       </c>
       <c r="D21">
-        <v>1.03531493571347</v>
+        <v>1.0126144415759</v>
       </c>
       <c r="E21">
-        <v>1.049358036682708</v>
+        <v>1.000010167699394</v>
       </c>
       <c r="F21">
-        <v>1.05517752273234</v>
+        <v>1.006778067382244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037405776914838</v>
+        <v>1.040675564405719</v>
       </c>
       <c r="J21">
-        <v>1.036747426026589</v>
+        <v>1.021735234695013</v>
       </c>
       <c r="K21">
-        <v>1.038897625242356</v>
+        <v>1.027360706617562</v>
       </c>
       <c r="L21">
-        <v>1.052889160699222</v>
+        <v>1.014991347453372</v>
       </c>
       <c r="M21">
-        <v>1.058687721916215</v>
+        <v>1.021632155051996</v>
       </c>
       <c r="N21">
-        <v>1.038219726288139</v>
+        <v>1.023186215922949</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029534627628143</v>
+        <v>0.9887326869818619</v>
       </c>
       <c r="D22">
-        <v>1.034874140259909</v>
+        <v>1.010327095953719</v>
       </c>
       <c r="E22">
-        <v>1.048617532301847</v>
+        <v>0.9964086953291548</v>
       </c>
       <c r="F22">
-        <v>1.054425367822161</v>
+        <v>1.003085674099874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037261932396927</v>
+        <v>1.039699942982701</v>
       </c>
       <c r="J22">
-        <v>1.036413071801786</v>
+        <v>1.01997550516859</v>
       </c>
       <c r="K22">
-        <v>1.038587615564302</v>
+        <v>1.02569671003198</v>
       </c>
       <c r="L22">
-        <v>1.052278537444797</v>
+        <v>1.012051633966049</v>
       </c>
       <c r="M22">
-        <v>1.058064654719771</v>
+        <v>1.018596250023537</v>
       </c>
       <c r="N22">
-        <v>1.037884897241985</v>
+        <v>1.021423987378755</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029844371875824</v>
+        <v>0.9904156647792292</v>
       </c>
       <c r="D23">
-        <v>1.035107778242807</v>
+        <v>1.01154409577257</v>
       </c>
       <c r="E23">
-        <v>1.049009961200727</v>
+        <v>0.9983250634834118</v>
       </c>
       <c r="F23">
-        <v>1.054823985696363</v>
+        <v>1.005050551089555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037338282325511</v>
+        <v>1.040219995728939</v>
       </c>
       <c r="J23">
-        <v>1.036590343328051</v>
+        <v>1.020912398048611</v>
       </c>
       <c r="K23">
-        <v>1.038751992887211</v>
+        <v>1.026582681976115</v>
       </c>
       <c r="L23">
-        <v>1.052602175019964</v>
+        <v>1.01361619165514</v>
       </c>
       <c r="M23">
-        <v>1.058394901599133</v>
+        <v>1.02021210651024</v>
       </c>
       <c r="N23">
-        <v>1.038062420514152</v>
+        <v>1.022362210754129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031064778025411</v>
+        <v>0.9968953113467808</v>
       </c>
       <c r="D24">
-        <v>1.036028379200091</v>
+        <v>1.016239037491808</v>
       </c>
       <c r="E24">
-        <v>1.050557717406905</v>
+        <v>1.005715013837601</v>
       </c>
       <c r="F24">
-        <v>1.056395822828892</v>
+        <v>1.012624712129082</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037636749775986</v>
+        <v>1.042205115275513</v>
       </c>
       <c r="J24">
-        <v>1.037287706187908</v>
+        <v>1.024513399745572</v>
       </c>
       <c r="K24">
-        <v>1.039398341599979</v>
+        <v>1.029986855130663</v>
       </c>
       <c r="L24">
-        <v>1.053877751270755</v>
+        <v>1.019642505275667</v>
       </c>
       <c r="M24">
-        <v>1.05969621952201</v>
+        <v>1.026433692525715</v>
       </c>
       <c r="N24">
-        <v>1.038760773709258</v>
+        <v>1.02596832628654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032482953986888</v>
+        <v>1.004133006160643</v>
       </c>
       <c r="D25">
-        <v>1.037098264004582</v>
+        <v>1.021500283475073</v>
       </c>
       <c r="E25">
-        <v>1.052359571089347</v>
+        <v>1.013995292313828</v>
       </c>
       <c r="F25">
-        <v>1.058225029032553</v>
+        <v>1.021105401758977</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037978702160606</v>
+        <v>1.044386247166141</v>
       </c>
       <c r="J25">
-        <v>1.038095803624861</v>
+        <v>1.028522074252134</v>
       </c>
       <c r="K25">
-        <v>1.04014671879536</v>
+        <v>1.033773757896397</v>
       </c>
       <c r="L25">
-        <v>1.055360951862975</v>
+        <v>1.026380165856463</v>
       </c>
       <c r="M25">
-        <v>1.061208711333003</v>
+        <v>1.033384685710528</v>
       </c>
       <c r="N25">
-        <v>1.039570018737262</v>
+        <v>1.029982693570703</v>
       </c>
     </row>
   </sheetData>
